--- a/benchmarking/results/gold_predictions_gpt-4o_cot_zeroshot_2_05112024_eval-summary.xlsx
+++ b/benchmarking/results/gold_predictions_gpt-4o_cot_zeroshot_2_05112024_eval-summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,160 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>entity_match_perfect_acc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>entity_match_weak_acc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>correct_entity_type_acc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>num_missing_entity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>num_hallucinated_entity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_distance_acc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_points_acc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>correct_properties_perfect_acc</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>correct_properties_weak_acc</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_hallucinated_properties</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>num_missing_properties</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>correct_height_metric</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>correct_height_distance</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>is_perfect_match_acc</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>is_parsable_yaml_acc</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>is_area_match_acc</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>are_entities_exactly_same_acc</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>percentage_entities_exactly_same_acc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>are_entities_same_exclude_props_acc</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>percentage_entities_same_exclude_props_acc</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>are_properties_same_acc</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>are_properties_same_NA</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>percentage_properties_same_acc</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>are_relations_exactly_same_acc</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>are_relations_exactly_same_NA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>percentage_relations_same_acc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>1 entity</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>2 entities</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>3 entities</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>distance relation</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>proporties</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>typos</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>grammar mistakes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>rel spatial term</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>contains relation</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>brand/name as property</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>brand/name standalone</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>non-roman alphabet</t>
         </is>
@@ -570,82 +600,96 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="C2" t="n">
+        <v>0.9020501138952164</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8906605922551253</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.8556701030927835</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.4484536082474227</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6151202749140894</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5309278350515464</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6829896907216495</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>128</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>0.005154639175257732</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8814432989690721</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.09803921568627451</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>41</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.1416122004357298</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.06349206349206349</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.1608391608391608</v>
-      </c>
       <c r="T2" t="n">
+        <v>0.1383442265795207</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.01587301587301587</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
       <c r="AA2" t="n">
-        <v>0.15</v>
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarking/results/gold_predictions_gpt-4o_cot_zeroshot_2_05112024_eval-summary.xlsx
+++ b/benchmarking/results/gold_predictions_gpt-4o_cot_zeroshot_2_05112024_eval-summary.xlsx
@@ -609,7 +609,7 @@
         <v>0.8906605922551253</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
         <v>37</v>
@@ -617,16 +617,16 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="K2" t="n">
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
